--- a/uploads/Template_Produtos_Mpozenato_CADASTRO_LUCIANE.xlsx
+++ b/uploads/Template_Produtos_Mpozenato_CADASTRO_LUCIANE.xlsx
@@ -24486,12 +24486,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -24529,12 +24529,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -24572,12 +24572,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -24615,12 +24615,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -24658,12 +24658,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -24701,12 +24701,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -24744,12 +24744,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -24787,12 +24787,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -24830,12 +24830,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -24873,12 +24873,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -24916,12 +24916,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -24959,12 +24959,12 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -25002,12 +25002,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -25045,12 +25045,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -25088,12 +25088,12 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -25131,12 +25131,12 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -25174,12 +25174,12 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -25217,12 +25217,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -25260,12 +25260,12 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -25303,12 +25303,12 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -25346,12 +25346,12 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -25389,12 +25389,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -25432,12 +25432,12 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -25475,12 +25475,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -25518,12 +25518,12 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -25561,12 +25561,12 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -25604,12 +25604,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -25647,12 +25647,12 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -25690,12 +25690,12 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -25733,12 +25733,12 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -25776,12 +25776,12 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -25819,12 +25819,12 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -25862,12 +25862,12 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -25905,12 +25905,12 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -25948,12 +25948,12 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -25991,12 +25991,12 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -26034,12 +26034,12 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -26077,12 +26077,12 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -26120,12 +26120,12 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -26163,12 +26163,12 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -26206,12 +26206,12 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -26249,12 +26249,12 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -26292,12 +26292,12 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -26335,12 +26335,12 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -26378,12 +26378,12 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -26421,12 +26421,12 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -26464,12 +26464,12 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -26507,12 +26507,12 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -26550,12 +26550,12 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -26593,12 +26593,12 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -26636,12 +26636,12 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -26679,12 +26679,12 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -26722,12 +26722,12 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -26765,12 +26765,12 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -26808,12 +26808,12 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -26851,12 +26851,12 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -26894,12 +26894,12 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -26937,12 +26937,12 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -26980,12 +26980,12 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -27023,12 +27023,12 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -27066,12 +27066,12 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -27109,12 +27109,12 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -27152,12 +27152,12 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -27195,12 +27195,12 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -27238,12 +27238,12 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -27281,12 +27281,12 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -27324,12 +27324,12 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -27367,12 +27367,12 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -27410,12 +27410,12 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -27453,12 +27453,12 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -27496,12 +27496,12 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -27539,12 +27539,12 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -27582,12 +27582,12 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -27625,12 +27625,12 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -27668,12 +27668,12 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -27711,12 +27711,12 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -27754,12 +27754,12 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -27797,12 +27797,12 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -27840,12 +27840,12 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -27883,12 +27883,12 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -27926,12 +27926,12 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -27969,12 +27969,12 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -28012,12 +28012,12 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -28055,12 +28055,12 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -28098,12 +28098,12 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -28141,12 +28141,12 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -28184,12 +28184,12 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -28227,12 +28227,12 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -28270,12 +28270,12 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -28313,12 +28313,12 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -28356,12 +28356,12 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -28399,12 +28399,12 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -28442,12 +28442,12 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -28485,12 +28485,12 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -28528,12 +28528,12 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -28571,12 +28571,12 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -28614,12 +28614,12 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
